--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-06_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-06_end.xlsx
@@ -2048,7 +2048,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  “Let them come?” Is that how you approach it, sir?
+    <t xml:space="preserve">[name="Talulah"]  'Let them come?' Is that how you approach it, sir?
 </t>
   </si>
   <si>
@@ -2576,7 +2576,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  “If righteousness can only be upheld by greater and greater violence, can it even be called righteous, still? ”
+    <t xml:space="preserve">[name="Alina"]  'If righteousness can only be upheld by greater and greater violence, can it even be called righteous, still? '
 </t>
   </si>
   <si>
@@ -2668,7 +2668,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  “Our war is a war against the ego. ”
+    <t xml:space="preserve">[name="Alina"]  'Our war is a war against the ego. '
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-06_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-06_end.xlsx
@@ -1924,7 +1924,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  And the Northwestern Tundra can’t keep us alive forever. The larger our group grows, the more food and energy supplies we need, and the villages that revile us far outnumber the ones that support us.
+    <t xml:space="preserve">[name="Talulah"]  And the Northwestern Tundra can't keep us alive forever. The larger our group grows, the more food and energy supplies we need, and the villages that revile us far outnumber the ones that support us.
 </t>
   </si>
   <si>
@@ -1932,7 +1932,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Will our fields be destroyed by the Patrol Unit? The guerrillas can easily dispose of them, but the other Infected can’t.
+    <t xml:space="preserve">[name="Talulah"]  Will our fields be destroyed by the Patrol Unit? The guerrillas can easily dispose of them, but the other Infected can't.
 </t>
   </si>
   <si>
@@ -1940,7 +1940,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Our only choice is to leave the tundra. Not for Sami, and not for the barrens... we’ll head east, head south, head for warmer places.
+    <t xml:space="preserve">[name="Talulah"]  Our only choice is to leave the tundra. Not for Sami, and not for the barrens... we'll head east, head south, head for warmer places.
 </t>
   </si>
   <si>
@@ -1956,7 +1956,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  You permanently protect the north, detesting all that the Infected of the north endure... so you’ve had little chance to understand the kind of life the Infected of the south have.
+    <t xml:space="preserve">[name="Talulah"]  You permanently protect the north, detesting all that the Infected of the north endure... so you've had little chance to understand the kind of life the Infected of the south have.
 </t>
   </si>
   <si>
@@ -1980,7 +1980,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  I don’t want them to unite by my side. No. I want them to unite under one encompassing philosophy.
+    <t xml:space="preserve">[name="Talulah"]  I don't want them to unite by my side. No. I want them to unite under one encompassing philosophy.
 </t>
   </si>
   <si>
@@ -2060,15 +2060,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  I’m looking for a chance to win.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  As far as so many more Infected are concerned, that’s hope. But to fighters like you and me, that’s a crossroads. The only crossroads where we can break from our intrinsic strategy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  To wander the tundra, in the end, is still nothing more than a slow death... much like the little life we have left as Infected. I need to repeat this point, over and over, because we’re all fully aware of it.
+    <t xml:space="preserve">[name="Talulah"]  I'm looking for a chance to win.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  As far as so many more Infected are concerned, that's hope. But to fighters like you and me, that's a crossroads. The only crossroads where we can break from our intrinsic strategy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  To wander the tundra, in the end, is still nothing more than a slow death... much like the little life we have left as Infected. I need to repeat this point, over and over, because we're all fully aware of it.
 </t>
   </si>
   <si>
@@ -2088,15 +2088,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  I’m fine. Just going to check if there are any survivors in the mines.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]  The guerrillas have already set out, and the village is starting the move too. The army isn’t following our tracks, either...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]  Dad? What’s up with you?
+    <t xml:space="preserve">[name="Talulah"]  I'm fine. Just going to check if there are any survivors in the mines.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  The guerrillas have already set out, and the village is starting the move too. The army isn't following our tracks, either...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Dad? What's up with you?
 </t>
   </si>
   <si>
@@ -2120,19 +2120,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  ...I know you’re all here. You’re not with the army. You haven’t even broken a twig with your steps.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I mean you no harm. If you’re not Infected, I’ll leave you be, unless you need assistance...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  D—don’t come any closer!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  Don’t move! If you do, I’ll shoot!
+    <t xml:space="preserve">[name="Talulah"]  ...I know you're all here. You're not with the army. You haven't even broken a twig with your steps.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I mean you no harm. If you're not Infected, I'll leave you be, unless you need assistance...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  D—don't come any closer!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  Don't move! If you do, I'll shoot!
 </t>
   </si>
   <si>
@@ -2140,11 +2140,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Timid Child"]  She’s—she’s Infected! Sasha, my Arts can drive Infected away...!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sasha"]  You can’t use your Arts!
+    <t xml:space="preserve">[name="Timid Child"]  She's—she's Infected! Sasha, my Arts can drive Infected away...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sasha"]  You can't use your Arts!
 </t>
   </si>
   <si>
@@ -2152,11 +2152,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sasha"]  G—get out of here already! We were just getting things from the mines... we don’t want to kill anyone!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sasha"]  I’ll shoot! You’ll die!  
+    <t xml:space="preserve">[name="Sasha"]  G—get out of here already! We were just getting things from the mines... we don't want to kill anyone!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sasha"]  I'll shoot! You'll die!  
 </t>
   </si>
   <si>
@@ -2172,7 +2172,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  We’re in the vicinity of a militarized mine. You wouldn’t dare light a fire.
+    <t xml:space="preserve">[name="Talulah"]  We're in the vicinity of a militarized mine. You wouldn't dare light a fire.
 </t>
   </si>
   <si>
@@ -2188,7 +2188,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Don’t be scared.
+    <t xml:space="preserve">[name="Talulah"]  Don't be scared.
 </t>
   </si>
   <si>
@@ -2208,39 +2208,39 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  It’s warmer, now, isn’t it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  That’s right, I really am Infected.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  So that’s how it happened.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  That’s how you found Sasha and Eno... they were never willing to talk about the past.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  If we never found them, they would’ve certainly passed away.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Perhaps, ever since Patriot refuted me, it was the one bit of good I’d done.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  So what’s happened today, then?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  ...I was careless with my Arts during training, FrostNova’s cloak was hung up nearby, and they spread to it. Now she’s out for my life.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  And you promised you’d help sew it back up?
+    <t xml:space="preserve">[name="Talulah"]  It's warmer, now, isn't it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  That's right, I really am Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  So that's how it happened.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  That's how you found Sasha and Eno... they were never willing to talk about the past.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  If we never found them, they would've certainly passed away.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Perhaps, ever since Patriot refuted me, it was the one bit of good I'd done.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  So what's happened today, then?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ...I was careless with my Arts during training, FrostNova's cloak was hung up nearby, and they spread to it. Now she's out for my life.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  And you promised you'd help sew it back up?
 </t>
   </si>
   <si>
@@ -2248,27 +2248,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  Oh, whatever. Give it to me. Knowing you, I’m scared you’d sew yourself to it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Don’t you want to join our group? If we have your gift with words, there’s a decently better chance I’ll talk Patriot over.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  I’ve told you before, Talulah... My Arts would be useless with the guerrillas. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  I can stand the blood, but I don’t want the initiative to harm people myself. You’ll be facing much more than just the Infected Patrol Unit, soon enough.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I suppose if I had dragged you along... I’d have been bothering you too much.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  Ah, you put it that way on purpose, didn’t you?
+    <t xml:space="preserve">[name="Alina"]  Oh, whatever. Give it to me. Knowing you, I'm scared you'd sew yourself to it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Don't you want to join our group? If we have your gift with words, there's a decently better chance I'll talk Patriot over.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  I've told you before, Talulah... My Arts would be useless with the guerrillas. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  I can stand the blood, but I don't want the initiative to harm people myself. You'll be facing much more than just the Infected Patrol Unit, soon enough.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I suppose if I had dragged you along... I'd have been bothering you too much.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Ah, you put it that way on purpose, didn't you?
 </t>
   </si>
   <si>
@@ -2276,11 +2276,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  Don’t remember wrong, now. It was I who wanted to go with you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  And up to now, it’s been for one reason. It’s because... Talulah, I feel like there’s every chance you’d forget.
+    <t xml:space="preserve">[name="Alina"]  Don't remember wrong, now. It was I who wanted to go with you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  And up to now, it's been for one reason. It's because... Talulah, I feel like there's every chance you'd forget.
 </t>
   </si>
   <si>
@@ -2292,11 +2292,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  I’ve been striving all this time for the future of the Infected.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  That’s not what you said, back at the very start.
+    <t xml:space="preserve">[name="Talulah"]  I've been striving all this time for the future of the Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  That's not what you said, back at the very start.
 </t>
   </si>
   <si>
@@ -2304,15 +2304,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  If bit by bit, we shake ourselves clean of all the things we’ve persevered with, or if we replace them with something new, then there’s a certain point where we realize we just haven’t persevered in anything, right?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  In a constant battle and with things changing all the time, it’s only natural I’d alter my policy. If rigor sets into our thinking, it could very well make us weaker.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  And where’d that stubborn part of you go?
+    <t xml:space="preserve">[name="Alina"]  If bit by bit, we shake ourselves clean of all the things we've persevered with, or if we replace them with something new, then there's a certain point where we realize we just haven't persevered in anything, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  In a constant battle and with things changing all the time, it's only natural I'd alter my policy. If rigor sets into our thinking, it could very well make us weaker.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  And where'd that stubborn part of you go?
 </t>
   </si>
   <si>
@@ -2320,19 +2320,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  What’s the difference?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  If there’s only Infected, then who’s even a normal person? Would we want all people to catch Oripathy? Or to cut ourselves off completely from the normal people?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  But if there were only normal people, no Infected... then the people who caught Oripathy would be normal people underneath, normal like the people who haven’t.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  Elders are just normal people, Ancients are just normal people, villagers who all know each other are normal people, and whoever’s living in the cities should be normal people all the same.
+    <t xml:space="preserve">[name="Talulah"]  What's the difference?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  If there's only Infected, then who's even a normal person? Would we want all people to catch Oripathy? Or to cut ourselves off completely from the normal people?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  But if there were only normal people, no Infected... then the people who caught Oripathy would be normal people underneath, normal like the people who haven't.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Elders are just normal people, Ancients are just normal people, villagers who all know each other are normal people, and whoever's living in the cities should be normal people all the same.
 </t>
   </si>
   <si>
@@ -2340,11 +2340,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  You’re all my family.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  No, we aren’t. 
+    <t xml:space="preserve">[name="Talulah"]  You're all my family.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  No, we aren't. 
 </t>
   </si>
   <si>
@@ -2352,7 +2352,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  You and I are of a mind on this. We couldn’t.
+    <t xml:space="preserve">[name="Talulah"]  You and I are of a mind on this. We couldn't.
 </t>
   </si>
   <si>
@@ -2368,7 +2368,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  Because you can cast Arts without a staff? Because our lives are so fleetingly short? Because even though we’ve gone through so much hardship, we can still persevere and live on?
+    <t xml:space="preserve">[name="Alina"]  Because you can cast Arts without a staff? Because our lives are so fleetingly short? Because even though we've gone through so much hardship, we can still persevere and live on?
 </t>
   </si>
   <si>
@@ -2376,19 +2376,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  I don’t need to choose any, Alina.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I’m proud just to be an Infected. Because this world still hasn’t killed me yet.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  And for that matter, we don’t need anything to cause us to pursue fairness. We should’ve been pursuing fairness in the first place, that’s why.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  And if the world won’t give it, we’ll just have to take it from it.
+    <t xml:space="preserve">[name="Talulah"]  I don't need to choose any, Alina.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I'm proud just to be an Infected. Because this world still hasn't killed me yet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  And for that matter, we don't need anything to cause us to pursue fairness. We should've been pursuing fairness in the first place, that's why.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  And if the world won't give it, we'll just have to take it from it.
 </t>
   </si>
   <si>
@@ -2396,7 +2396,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  You’re not laughing at me, are you?
+    <t xml:space="preserve">[name="Talulah"]  You're not laughing at me, are you?
 </t>
   </si>
   <si>
@@ -2404,11 +2404,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Mn, well... I feel they’re all brave, too. All the people struggling against the fate that’s been forced on us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  Then I’m sure you feel—
+    <t xml:space="preserve">[name="Talulah"]  Mn, well... I feel they're all brave, too. All the people struggling against the fate that's been forced on us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Then I'm sure you feel—
 </t>
   </si>
   <si>
@@ -2428,11 +2428,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  I don’t feel that way, Talulah.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  ...That’s another of your ironic remarks, Alina.
+    <t xml:space="preserve">[name="Alina"]  I don't feel that way, Talulah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ...That's another of your ironic remarks, Alina.
 </t>
   </si>
   <si>
@@ -2440,11 +2440,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Don’t say that. Fate’s a jealous one. Talking about those things is just tempting it to take them away.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  But I don’t believe in fate, Talulah.
+    <t xml:space="preserve">[name="Talulah"]  Don't say that. Fate's a jealous one. Talking about those things is just tempting it to take them away.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  But I don't believe in fate, Talulah.
 </t>
   </si>
   <si>
@@ -2452,7 +2452,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  Because I can’t see it.
+    <t xml:space="preserve">[name="Alina"]  Because I can't see it.
 </t>
   </si>
   <si>
@@ -2460,11 +2460,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  I can see the cloak I’m holding in my left hand. I can see the candlelight, and I can see the needle I’m holding in my right.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  I can see the Infected children’s smiles, and I can see the white smoke of vegetables, roasting fragrantly, wafting through the air.
+    <t xml:space="preserve">[name="Alina"]  I can see the cloak I'm holding in my left hand. I can see the candlelight, and I can see the needle I'm holding in my right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  I can see the Infected children's smiles, and I can see the white smoke of vegetables, roasting fragrantly, wafting through the air.
 </t>
   </si>
   <si>
@@ -2472,7 +2472,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  And then there’s people who can’t see even these.
+    <t xml:space="preserve">[name="Alina"]  And then there's people who can't see even these.
 </t>
   </si>
   <si>
@@ -2488,23 +2488,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  Would you possibly think, this is just too much? I just can’t do anything anymore?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  If Patriot’s taught me anything, then one lesson comes to mind, from long ago at that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I wouldn’t bow my head.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  It sneers at me, and I’ll be certain to burn it to ash.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  You’re a blockhead, Talulah. That, or you’re getting old.
+    <t xml:space="preserve">[name="Alina"]  Would you possibly think, this is just too much? I just can't do anything anymore?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  If Patriot's taught me anything, then one lesson comes to mind, from long ago at that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I wouldn't bow my head.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It sneers at me, and I'll be certain to burn it to ash.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  You're a blockhead, Talulah. That, or you're getting old.
 </t>
   </si>
   <si>
@@ -2516,35 +2516,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  Because if someone’s gotten old as old gets and still keeps that outlook all the way, it just means they’ve gone through far, far too much, to the point the world’s left its bitter vestiges on their body, allows them no rest in passing the remainder of their life.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  ...And they’re living in the desert of the past. If it were me, I wouldn’t even have the courage to take the first step.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  If I were that old and had that much arrogance, I’d be taking the events of the past and stabbing myself with them, every single step I took.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  I can’t even imagine it. Stuck in the sands of memory, of all the past, how does a person even know they’re still moving forwards?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  And what kind of resilient spirit does it take to let them make a new first step, unlike any they’ve made before?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I feel like you’ve been hinting at someone this entire time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  I’ve said I know a lot of what he’s done, but I still truthfully don’t know Mr. Patriot at all. I’ve never spoken a single word to him.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  If you say that’s him, well, why not. Let it be him.
+    <t xml:space="preserve">[name="Alina"]  Because if someone's gotten old as old gets and still keeps that outlook all the way, it just means they've gone through far, far too much, to the point the world's left its bitter vestiges on their body, allows them no rest in passing the remainder of their life.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  ...And they're living in the desert of the past. If it were me, I wouldn't even have the courage to take the first step.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  If I were that old and had that much arrogance, I'd be taking the events of the past and stabbing myself with them, every single step I took.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  I can't even imagine it. Stuck in the sands of memory, of all the past, how does a person even know they're still moving forwards?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  And what kind of resilient spirit does it take to let them make a new first step, unlike any they've made before?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I feel like you've been hinting at someone this entire time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  I've said I know a lot of what he's done, but I still truthfully don't know Mr. Patriot at all. I've never spoken a single word to him.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  If you say that's him, well, why not. Let it be him.
 </t>
   </si>
   <si>
@@ -2552,7 +2552,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  You’re fast to substitute.
+    <t xml:space="preserve">[name="Talulah"]  You're fast to substitute.
 </t>
   </si>
   <si>
@@ -2564,15 +2564,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  So you feel like I’m only fighting for all the things I can see? Or, maybe, you’re telling me that might not be right?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  Compared to the things you’d told me back when we left the village, it’s just too shallow.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  In just these few short years, you’ve already become an outstanding leader. But it’s not entirely a good thing for you. You can’t let yourself stop here, can you?
+    <t xml:space="preserve">[name="Talulah"]  So you feel like I'm only fighting for all the things I can see? Or, maybe, you're telling me that might not be right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Compared to the things you'd told me back when we left the village, it's just too shallow.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  In just these few short years, you've already become an outstanding leader. But it's not entirely a good thing for you. You can't let yourself stop here, can you?
 </t>
   </si>
   <si>
@@ -2580,11 +2580,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  Those words have rolled around in my head for years and years, now. For so many years, I’ve been constantly thinking it over. I probably haven’t gotten it straight yet, but I’ve been thinking it over and over.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Alright, then. Let’s throw fate and making stands and all those other words we were talking about out the window. What is it you want to teach us today, Professor Alina?
+    <t xml:space="preserve">[name="Alina"]  Those words have rolled around in my head for years and years, now. For so many years, I've been constantly thinking it over. I probably haven't gotten it straight yet, but I've been thinking it over and over.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Alright, then. Let's throw fate and making stands and all those other words we were talking about out the window. What is it you want to teach us today, Professor Alina?
 </t>
   </si>
   <si>
@@ -2592,11 +2592,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Don’t joke about that. FrostNova’d freeze both our mouths shut.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  Taking you for example, Talulah, you wouldn’t fight just to defeat what enemies you see, right?
+    <t xml:space="preserve">[name="Talulah"]  Don't joke about that. FrostNova'd freeze both our mouths shut.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Taking you for example, Talulah, you wouldn't fight just to defeat what enemies you see, right?
 </t>
   </si>
   <si>
@@ -2608,19 +2608,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Professor Alina wants me to do battle with things I can’t see. How would I defeat them, then?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  With things you can promise. Warmth, food, bedding, these are all things you’ll be able to touch on some day or other. Think things unlike those.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  This battle of ours probably won’t bear results. It’s likely we have no way to win.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I’m already not that fond of making promises. Things too far away are near as good as me playing tricks.
+    <t xml:space="preserve">[name="Talulah"]  Professor Alina wants me to do battle with things I can't see. How would I defeat them, then?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  With things you can promise. Warmth, food, bedding, these are all things you'll be able to touch on some day or other. Think things unlike those.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  This battle of ours probably won't bear results. It's likely we have no way to win.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I'm already not that fond of making promises. Things too far away are near as good as me playing tricks.
 </t>
   </si>
   <si>
@@ -2628,19 +2628,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  Haven’t I asked you before? When that time comes, would you still feel this fate is worth you making a stand against it?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  Once this is all over, you won’t even be able to so much as see your enemies. You’ll share those enemies with all those people who can’t see a future.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  ...And then, that’s when the true battle’s really just begun.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  You mention that spirit, those enemies, and those things that carve into ours and the Ursus people’s bones.
+    <t xml:space="preserve">[name="Alina"]  Haven't I asked you before? When that time comes, would you still feel this fate is worth you making a stand against it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Once this is all over, you won't even be able to so much as see your enemies. You'll share those enemies with all those people who can't see a future.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  ...And then, that's when the true battle's really just begun.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You mention that spirit, those enemies, and those things that carve into ours and the Ursus people's bones.
 </t>
   </si>
   <si>
@@ -2648,23 +2648,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  The Emperor’s just one form of it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  As long as people won’t lay down their blades, this conflict will never end.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I don’t quite agree. People taking up their blades to fend off what causes them strife is the just thing to do.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  You’re not wrong. Honestly, this conflict is the sort that’ll never end, in my eyes.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  Thanks to Mr. Patriot’s blessing, I’ve read no small amount of Leithania and Victoria’s books. I very much liked what this one person said...
+    <t xml:space="preserve">[name="Alina"]  The Emperor's just one form of it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  As long as people won't lay down their blades, this conflict will never end.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I don't quite agree. People taking up their blades to fend off what causes them strife is the just thing to do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  You're not wrong. Honestly, this conflict is the sort that'll never end, in my eyes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Thanks to Mr. Patriot's blessing, I've read no small amount of Leithania and Victoria's books. I very much liked what this one person said...
 </t>
   </si>
   <si>
@@ -2672,19 +2672,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  It’s true, Talulah. As you’ll never lay down the swords in your grips—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  ...So you’ll never lay down the needle in your grasp.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  And that wraps up our lesson today! There’s almost nothing left I can really teach you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  The children should be studying right now. There’s some knowledge they should have by tomorrow.
+    <t xml:space="preserve">[name="Alina"]  It's true, Talulah. As you'll never lay down the swords in your grips—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ...So you'll never lay down the needle in your grasp.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  And that wraps up our lesson today! There's almost nothing left I can really teach you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  The children should be studying right now. There's some knowledge they should have by tomorrow.
 </t>
   </si>
   <si>
@@ -2692,7 +2692,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  When you fall over, you climb back up. But if he won’t let you fall over...
+    <t xml:space="preserve">[name="Alina"]  When you fall over, you climb back up. But if he won't let you fall over...
 </t>
   </si>
   <si>
@@ -2700,31 +2700,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  Same as when you’re confronting Patriot. In all honesty, I don’t see him and you as two different kinds of people.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  You both already believe too strongly in your own ways. I can’t let those any of those lively little creatures go around saying things like you’re right, and he’s wrong.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  No, Alina. I can’t go and do something I don’t even believe in myself.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  That’s true. It’s another one of the tricks with which Kashchey bound you, exploited you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  You’re just saying there’s no way I can wipe him out, right?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  It’s a sort of idea, after all. We probably don’t have much chance of wiping out an idea...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  But I’m still just that bit confident.
+    <t xml:space="preserve">[name="Alina"]  Same as when you're confronting Patriot. In all honesty, I don't see him and you as two different kinds of people.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  You both already believe too strongly in your own ways. I can't let those any of those lively little creatures go around saying things like you're right, and he's wrong.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  No, Alina. I can't go and do something I don't even believe in myself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  That's true. It's another one of the tricks with which Kashchey bound you, exploited you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You're just saying there's no way I can wipe him out, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  It's a sort of idea, after all. We probably don't have much chance of wiping out an idea...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  But I'm still just that bit confident.
 </t>
   </si>
   <si>
@@ -2732,23 +2732,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  If we’re still by your side when that time comes, we’ll definitely be able to pull you back.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  It doesn’t matter what kind of Arts Kashchey had, we’ll definitely have a way of breaking them down. There’s always something we can do.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  In this battle, we’ll start from words and language, start from the next moment, start from a facial expression. We’ll start from now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  They’ll know what mushrooms are safe to eat, how to raise livestock, how to get better a little sooner if you catch a cold.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  We’ll try and try not to lose.
+    <t xml:space="preserve">[name="Alina"]  If we're still by your side when that time comes, we'll definitely be able to pull you back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  It doesn't matter what kind of Arts Kashchey had, we'll definitely have a way of breaking them down. There's always something we can do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  In this battle, we'll start from words and language, start from the next moment, start from a facial expression. We'll start from now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  They'll know what mushrooms are safe to eat, how to raise livestock, how to get better a little sooner if you catch a cold.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  We'll try and try not to lose.
 </t>
   </si>
   <si>
@@ -2760,19 +2760,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  I’ll just force myself to take that as encouragement.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  Mm, I’m done sewing. You can give it to her.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  I can tell she really cherishes this cloak. It looks like one the army made. And it’s three layers inside, three layers outside. It makes it seem really big.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  It probably is an army cloak. That, or it’s...
+    <t xml:space="preserve">[name="Talulah"]  I'll just force myself to take that as encouragement.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Mm, I'm done sewing. You can give it to her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  I can tell she really cherishes this cloak. It looks like one the army made. And it's three layers inside, three layers outside. It makes it seem really big.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It probably is an army cloak. That, or it's...
 </t>
   </si>
   <si>
@@ -2792,11 +2792,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  What is it? I’m about to prepare tomorrow’s lesson. It’s a drawing lesson, so they’re all looking forward to it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I’ll bring back two brushes for you, next time.
+    <t xml:space="preserve">[name="Alina"]  What is it? I'm about to prepare tomorrow's lesson. It's a drawing lesson, so they're all looking forward to it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I'll bring back two brushes for you, next time.
 </t>
   </si>
   <si>
@@ -2804,7 +2804,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  The fighters all know we have a good few Infected teachers, it’s just that you’ve been keeping yourself tucked away, all...
+    <t xml:space="preserve">[name="Talulah"]  The fighters all know we have a good few Infected teachers, it's just that you've been keeping yourself tucked away, all...
 </t>
   </si>
   <si>
@@ -2812,15 +2812,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  Once that Infected common ideal of yours becomes reality, we’ll naturally come to know each other then.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  And besides, we’re all fighters, just on different battlefields. We’ll know all about each other sooner or later, won’t we?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  You’re right, Alina. Infected Fighter, Alina.
+    <t xml:space="preserve">[name="Alina"]  Once that Infected common ideal of yours becomes reality, we'll naturally come to know each other then.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  And besides, we're all fighters, just on different battlefields. We'll know all about each other sooner or later, won't we?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You're right, Alina. Infected Fighter, Alina.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-06_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-06_end.xlsx
@@ -3592,7 +3592,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="알리나"]  패트리어트 씨 덕분에 라이타니아와 빅토리아의 책을 많이 읽었어. 내가 제일 좋아하는 구절은 말이지……
+    <t xml:space="preserve">[name="알리나"]  패트리어트 씨 덕분에 라이타니엔과 빅토리아의 책을 많이 읽었어. 내가 제일 좋아하는 구절은 말이지……
 </t>
   </si>
   <si>
